--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5198</v>
+        <v>5203</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20337729</v>
+        <v>20360065</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D66" t="n">
         <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>9908094</v>
+        <v>9929275</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15724</v>
+        <v>15726</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24658131</v>
+        <v>24658731</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="D73" t="n">
         <v>410</v>
       </c>
       <c r="E73" t="n">
-        <v>7360155</v>
+        <v>7383072</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D74" t="n">
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>4191769</v>
+        <v>4258463</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D75" t="n">
         <v>60</v>
       </c>
       <c r="E75" t="n">
-        <v>2809400</v>
+        <v>2849572</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D76" t="n">
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>2342770</v>
+        <v>2483190</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151093</v>
+        <v>151098</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482071222</v>
+        <v>482084331</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409001</v>
+        <v>409006</v>
       </c>
       <c r="D92" t="n">
         <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593588748</v>
+        <v>1593616902</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209480</v>
+        <v>209490</v>
       </c>
       <c r="D93" t="n">
         <v>34260</v>
       </c>
       <c r="E93" t="n">
-        <v>1307421313</v>
+        <v>1307691204</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94141</v>
+        <v>94144</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>915511712</v>
+        <v>915770565</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50712</v>
+        <v>50722</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>929874622</v>
+        <v>930422875</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D98" t="n">
         <v>181</v>
       </c>
       <c r="E98" t="n">
-        <v>117674774</v>
+        <v>117791167</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D101" t="n">
         <v>44</v>
       </c>
       <c r="E101" t="n">
-        <v>32040206</v>
+        <v>32052522</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135215</v>
+        <v>135216</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272095449</v>
+        <v>272104589</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4715,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8168</v>
+        <v>8170</v>
       </c>
       <c r="D105" t="n">
         <v>1913</v>
       </c>
       <c r="E105" t="n">
-        <v>16867318</v>
+        <v>16872184</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6387</v>
+        <v>6390</v>
       </c>
       <c r="D107" t="n">
         <v>1894</v>
       </c>
       <c r="E107" t="n">
-        <v>21941144</v>
+        <v>21955635</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3791</v>
+        <v>3798</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9080369</v>
+        <v>9098224</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4554</v>
+        <v>4558</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20454780</v>
+        <v>20484785</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D117" t="n">
         <v>398</v>
       </c>
       <c r="E117" t="n">
-        <v>12347636</v>
+        <v>12352831</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D118" t="n">
         <v>161</v>
       </c>
       <c r="E118" t="n">
-        <v>11742670</v>
+        <v>11793478</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8485</v>
+        <v>8488</v>
       </c>
       <c r="D122" t="n">
         <v>1493</v>
       </c>
       <c r="E122" t="n">
-        <v>12669783</v>
+        <v>12672414</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>30287</v>
+        <v>30288</v>
       </c>
       <c r="D132" t="n">
         <v>5782</v>
       </c>
       <c r="E132" t="n">
-        <v>174022945</v>
+        <v>174222945</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24412</v>
+        <v>24413</v>
       </c>
       <c r="D144" t="n">
         <v>4621</v>
       </c>
       <c r="E144" t="n">
-        <v>201787181</v>
+        <v>201797181</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>96857</v>
+        <v>96858</v>
       </c>
       <c r="D173" t="n">
         <v>16841</v>
       </c>
       <c r="E173" t="n">
-        <v>327922035</v>
+        <v>327924730</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68732</v>
+        <v>68734</v>
       </c>
       <c r="D184" t="n">
-        <v>13880</v>
+        <v>13881</v>
       </c>
       <c r="E184" t="n">
-        <v>134150673</v>
+        <v>134170601</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
